--- a/CashFlow/CMI_cashflow.xlsx
+++ b/CashFlow/CMI_cashflow.xlsx
@@ -76,7 +76,7 @@
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -746,19 +746,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>14129000000.0</v>
+        <v>46000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>14190000000.0</v>
+        <v>303000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>10783000000.0</v>
+        <v>192000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>7110000000.0</v>
+        <v>227000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3424000000.0</v>
+        <v>291000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>16000000.0</v>
@@ -998,19 +998,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>288000000.0</v>
+        <v>10346000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-198000000.0</v>
+        <v>10060000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-407000000.0</v>
+        <v>7583000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>83000000.0</v>
+        <v>5401000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-381000000.0</v>
+        <v>2460000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>28000000.0</v>
